--- a/addons/ExcelGenerate/Excel/SkillConfig.xlsx
+++ b/addons/ExcelGenerate/Excel/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot\Projects\VTuberDuel\addons\ExcelGenerate\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D092883-2103-41B4-AB6A-E06B5A3B82BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464551B-07EE-4349-A6D2-0925E2E5F99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="25600" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillCalculatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillCalculatValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
     <t>0不变,
 1前进,
 -1后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCalculateType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +681,10 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -724,10 +724,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>18</v>
@@ -754,19 +754,19 @@
         <v>19</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
@@ -786,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
@@ -798,7 +798,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>2</v>
@@ -825,10 +825,10 @@
         <v>25</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
@@ -839,34 +839,34 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -878,55 +878,55 @@
         <v>23</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="4"/>
       <c r="R4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="7" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
@@ -1060,7 +1060,7 @@
       <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>6</v>
       </c>
       <c r="H7" s="7">
@@ -1113,7 +1113,7 @@
       <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>6</v>
       </c>
       <c r="H8" s="7">
